--- a/WebPage/Common/RptTemplet/0518Report.xlsx
+++ b/WebPage/Common/RptTemplet/0518Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654AFB2A-806F-4B52-B024-1A0E2E5CFECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B678E2-853B-4154-BA42-C5A7D65FB8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -179,6 +176,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,75 +464,75 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="29.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="17.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="29.42578125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="J2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="J2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/WebPage/Common/RptTemplet/0518Report.xlsx
+++ b/WebPage/Common/RptTemplet/0518Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoeChen\Desktop\CSIP_Edit\Website\csip_cardflow_sit\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B678E2-853B-4154-BA42-C5A7D65FB8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F5AC8-7308-4BFF-AD24-6327D409BA77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>列印日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>卡別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅馬拼音</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,24 +465,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="29.42578125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.69921875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="29.3984375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.09765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="24.3984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -490,7 +494,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -512,27 +516,30 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
